--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3862008.194219909</v>
+        <v>3854834.905509626</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.7357022</v>
+        <v>2346514.735702199</v>
       </c>
     </row>
     <row r="8">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>38.7051896708986</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>21.18689457445403</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>86.18122740077425</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>61.05764562385455</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5.363104630273072</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>13.46550985000066</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>372.039630846422</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>367.9622327591133</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385218</v>
+        <v>120.1819171385217</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>188.1129404595379</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>372.039630846422</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281884</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129685</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>88.56779118296284</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>242.9546773564058</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>122.243676565359</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674584</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>62.26390729945315</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>283.3173445899924</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>70.89253115536377</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.7309251498735</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>14.5268783873314</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274073</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>22.85425645852576</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>94.60347398419923</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,7 +1587,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7178027211458</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>274.5332983360472</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056519</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>80.30793840498045</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.118589139012</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>245.8447460296572</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>136.448301766467</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>216.4561158141381</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>89.22126267828973</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710093</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.5856872771425</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>13.74538956449255</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>72.30475791641932</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>47.20011114811113</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385028</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>128.2693160379189</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>96.48693097153571</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>195.2576055935794</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>529.5587134138201</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="C2" t="n">
-        <v>529.5587134138201</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="D2" t="n">
-        <v>529.5587134138201</v>
+        <v>307.9839952821146</v>
       </c>
       <c r="E2" t="n">
-        <v>529.5587134138201</v>
+        <v>307.9839952821146</v>
       </c>
       <c r="F2" t="n">
-        <v>250.6127399770974</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228794</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>529.5587134138201</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="U2" t="n">
-        <v>529.5587134138201</v>
+        <v>626.0261199015631</v>
       </c>
       <c r="V2" t="n">
-        <v>529.5587134138201</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="W2" t="n">
-        <v>529.5587134138201</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="X2" t="n">
-        <v>529.5587134138201</v>
+        <v>347.0801464648404</v>
       </c>
       <c r="Y2" t="n">
-        <v>529.5587134138201</v>
+        <v>347.0801464648404</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>617.3516848454813</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C3" t="n">
-        <v>442.8986555643543</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D3" t="n">
-        <v>293.964245903103</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E3" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F3" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G3" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L3" t="n">
-        <v>165.799003153448</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M3" t="n">
-        <v>439.1939517187799</v>
+        <v>367.8501726635176</v>
       </c>
       <c r="N3" t="n">
-        <v>712.5889002841118</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121334</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1017.574309960155</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>845.5702972113336</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>845.5702972113336</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U3" t="n">
-        <v>617.3516848454813</v>
+        <v>902.746154837531</v>
       </c>
       <c r="V3" t="n">
-        <v>617.3516848454813</v>
+        <v>667.5940466057882</v>
       </c>
       <c r="W3" t="n">
-        <v>617.3516848454813</v>
+        <v>605.9196570867432</v>
       </c>
       <c r="X3" t="n">
-        <v>617.3516848454813</v>
+        <v>398.0681568812104</v>
       </c>
       <c r="Y3" t="n">
-        <v>617.3516848454813</v>
+        <v>190.3078581162565</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.3019767171697</v>
+        <v>185.391191902125</v>
       </c>
       <c r="C4" t="n">
-        <v>117.3019767171697</v>
+        <v>185.391191902125</v>
       </c>
       <c r="D4" t="n">
-        <v>117.3019767171697</v>
+        <v>185.391191902125</v>
       </c>
       <c r="E4" t="n">
-        <v>117.3019767171697</v>
+        <v>185.391191902125</v>
       </c>
       <c r="F4" t="n">
-        <v>117.3019767171697</v>
+        <v>185.391191902125</v>
       </c>
       <c r="G4" t="n">
-        <v>117.3019767171697</v>
+        <v>185.391191902125</v>
       </c>
       <c r="H4" t="n">
-        <v>117.3019767171697</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>117.3019767171697</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>27.50979850050467</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>117.3019767171697</v>
+        <v>185.391191902125</v>
       </c>
       <c r="U4" t="n">
-        <v>117.3019767171697</v>
+        <v>185.391191902125</v>
       </c>
       <c r="V4" t="n">
-        <v>117.3019767171697</v>
+        <v>185.391191902125</v>
       </c>
       <c r="W4" t="n">
-        <v>117.3019767171697</v>
+        <v>185.391191902125</v>
       </c>
       <c r="X4" t="n">
-        <v>117.3019767171697</v>
+        <v>185.391191902125</v>
       </c>
       <c r="Y4" t="n">
-        <v>117.3019767171697</v>
+        <v>185.391191902125</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>408.3876942059206</v>
+        <v>51.68860422470549</v>
       </c>
       <c r="C5" t="n">
-        <v>408.3876942059206</v>
+        <v>51.68860422470549</v>
       </c>
       <c r="D5" t="n">
-        <v>408.3876942059206</v>
+        <v>51.68860422470549</v>
       </c>
       <c r="E5" t="n">
-        <v>408.3876942059206</v>
+        <v>51.68860422470549</v>
       </c>
       <c r="F5" t="n">
-        <v>401.4421934567171</v>
+        <v>44.74310347550201</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380394</v>
+        <v>57.643917353804</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456876</v>
+        <v>220.1747338456879</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039971</v>
+        <v>474.0852112039975</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494151</v>
+        <v>773.2160860494158</v>
       </c>
       <c r="N5" t="n">
         <v>1062.555213635721</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293127</v>
+        <v>1290.582309293128</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935879</v>
+        <v>1447.52377693588</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.76264748819</v>
+        <v>1366.762647488191</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.76264748819</v>
+        <v>1366.762647488191</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.76264748819</v>
+        <v>1366.762647488191</v>
       </c>
       <c r="U5" t="n">
-        <v>1112.916339810571</v>
+        <v>1366.762647488191</v>
       </c>
       <c r="V5" t="n">
-        <v>781.8534524670005</v>
+        <v>1366.762647488191</v>
       </c>
       <c r="W5" t="n">
-        <v>781.8534524670005</v>
+        <v>1176.749576316941</v>
       </c>
       <c r="X5" t="n">
-        <v>408.3876942059206</v>
+        <v>803.283818055861</v>
       </c>
       <c r="Y5" t="n">
-        <v>408.3876942059206</v>
+        <v>427.4862111402833</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>527.9430831517127</v>
+        <v>658.9226223886626</v>
       </c>
       <c r="C6" t="n">
-        <v>527.9430831517127</v>
+        <v>484.4695931075356</v>
       </c>
       <c r="D6" t="n">
-        <v>527.9430831517127</v>
+        <v>335.5351834462843</v>
       </c>
       <c r="E6" t="n">
-        <v>368.7056281462571</v>
+        <v>176.2977284408288</v>
       </c>
       <c r="F6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="K6" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="L6" t="n">
-        <v>314.0811796138498</v>
+        <v>314.0811796138499</v>
       </c>
       <c r="M6" t="n">
-        <v>682.4004141518072</v>
+        <v>682.4004141518076</v>
       </c>
       <c r="N6" t="n">
-        <v>949.3968358693979</v>
+        <v>1050.719648689765</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241717</v>
+        <v>1359.034530062085</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707609</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107477</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="T6" t="n">
-        <v>1033.017297458525</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="U6" t="n">
-        <v>943.5548821221994</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="V6" t="n">
-        <v>943.5548821221994</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="W6" t="n">
-        <v>943.5548821221994</v>
+        <v>1242.749758379217</v>
       </c>
       <c r="X6" t="n">
-        <v>735.7033819166666</v>
+        <v>1034.898258173685</v>
       </c>
       <c r="Y6" t="n">
-        <v>527.9430831517127</v>
+        <v>827.1379594087307</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771373</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771373</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771373</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771373</v>
+        <v>191.725145014737</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771373</v>
+        <v>191.725145014737</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771373</v>
+        <v>191.725145014737</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888145</v>
+        <v>32.09990175888154</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611244</v>
+        <v>90.61654790611261</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236684</v>
+        <v>162.7032697236687</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400016</v>
+        <v>238.5105468400019</v>
       </c>
       <c r="O7" t="n">
-        <v>292.514541505794</v>
+        <v>292.5145415057944</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="S7" t="n">
-        <v>92.65600612372702</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="T7" t="n">
-        <v>92.65600612372702</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="U7" t="n">
-        <v>29.76317046771373</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="V7" t="n">
-        <v>29.76317046771373</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771373</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771373</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771373</v>
+        <v>315.2036061918673</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1882.054803223514</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>550.4609080000314</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>139.4750032104238</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>125.5515991490147</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.654643287636</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>373.0594214943678</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5032,61 +5032,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5126,22 +5126,22 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>1088.787142923176</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1396.107276203138</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.969903867171</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2005.509969085868</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.9270045185178</v>
+        <v>438.5941600866654</v>
       </c>
       <c r="C13" t="n">
-        <v>376.9270045185178</v>
+        <v>438.5941600866654</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185178</v>
+        <v>288.4775206743296</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185178</v>
+        <v>288.4775206743296</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185178</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1292.282102489224</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1068.496687278729</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>779.3680484922876</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V13" t="n">
-        <v>779.3680484922876</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W13" t="n">
-        <v>779.3680484922876</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="X13" t="n">
-        <v>779.3680484922876</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="Y13" t="n">
-        <v>558.5754693487575</v>
+        <v>620.2426249169051</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>226.2249729967968</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028587</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383442</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>675.0071030383442</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>447.0175521403269</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y16" t="n">
-        <v>226.2249729967968</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,19 +5515,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3926.422678879033</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>3757.486495951126</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>3757.486495951126</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>4860.854573014293</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>4583.54821105869</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>4328.863722852803</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>4328.863722852803</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>4328.863722852803</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y19" t="n">
-        <v>4108.071143709273</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5737,13 +5737,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,25 +5752,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207831</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2649.889045452864</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3263.786115209752</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3571.106248489714</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>3900.968876153747</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4253.421048821323</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.72167055707</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>643.8194987924328</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028587</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293934</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>643.8194987924328</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>643.8194987924328</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>643.8194987924328</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6074,22 +6074,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2410.070939158951</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1396.776281528597</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1196.85627144415</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>973.0708562336554</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>683.9422174472136</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>683.9422174472136</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>394.5250474102529</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>394.5250474102529</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>394.5250474102529</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823783</v>
@@ -6256,7 +6256,7 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4234.628113830029</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C28" t="n">
-        <v>4065.691930902122</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D28" t="n">
-        <v>3915.575291489787</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>3777.748724048911</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>3777.748724048911</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>4637.069157803799</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>4637.069157803799</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y28" t="n">
-        <v>4416.276578660269</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,7 +6478,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6487,7 +6487,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1297.7186795659</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1073.933264355406</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1073.933264355406</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1073.933264355406</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>784.5160943184452</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>784.5160943184452</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705745</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705745</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705745</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705745</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F34" t="n">
         <v>527.3450129705745</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141521</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W34" t="n">
-        <v>748.1375921141047</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X34" t="n">
-        <v>748.1375921141047</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.3450129705745</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4036.63275513288</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3867.696572204973</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4735.895237692792</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4512.109822482297</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>4512.109822482297</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>4257.42533427641</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>4257.42533427641</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>4257.42533427641</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>4036.63275513288</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>395.2468244550147</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1314.806058113244</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1025.677419326802</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1025.677419326802</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>1025.677419326802</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>797.6878684287846</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y40" t="n">
-        <v>576.8952892852544</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="41">
@@ -7393,22 +7393,22 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7420,25 +7420,25 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>394.9573788353329</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>394.9573788353329</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>394.9573788353329</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>394.9573788353329</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.156678913841</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>843.7395088768803</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>615.749957978863</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y43" t="n">
-        <v>394.9573788353329</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7663,16 +7663,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.9089152986054</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C46" t="n">
-        <v>653.9727323706985</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D46" t="n">
-        <v>653.9727323706985</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E46" t="n">
-        <v>506.0596387883054</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1401.454724122008</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>1112.326085335566</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V46" t="n">
-        <v>1112.326085335566</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W46" t="n">
-        <v>822.9089152986054</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="X46" t="n">
-        <v>822.9089152986054</v>
+        <v>819.0123268140194</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.9089152986054</v>
+        <v>598.2197476704893</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>223.6557144812347</v>
       </c>
       <c r="N3" t="n">
         <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>321.7978959885859</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938571</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948385</v>
+        <v>102.9473967948384</v>
       </c>
       <c r="K6" t="n">
-        <v>97.00923094357586</v>
+        <v>97.00923094357577</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835732</v>
+        <v>450.1033532835734</v>
       </c>
       <c r="N6" t="n">
-        <v>335.2690053709176</v>
+        <v>437.6152809470458</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>216.1164930638095</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247343</v>
+        <v>107.7037345247342</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>295.3773510571272</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814688</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9245,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>96.03744927814699</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>73.64859338270617</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>43.65987261462453</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>285.1031356539328</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>91.23759968302096</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>122.5667915644055</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>103.317335999404</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>39.52901837748206</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>11.70405406253013</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>75.26883114644289</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>86.93888269364739</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>8.845763264780771</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>40.67825230693376</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>9.985660880102131</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.128537537956674</v>
       </c>
     </row>
     <row r="29">
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>108.6995473053135</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>16.93731105944852</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>184.1754204191107</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>149.2428031419699</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>178.509544240926</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>17.1517319850123</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>125.0606300868535</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>91.26539274301163</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654162.2474420606</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.247442061</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420606</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
+        <v>779989.6813710693</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710692</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
         <v>742955.213501647</v>
       </c>
       <c r="F2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="G2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="H2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="I2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="J2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>742955.213501647</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="M2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="O2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="P2" t="n">
         <v>742955.2135016472</v>
-      </c>
-      <c r="J2" t="n">
-        <v>742955.2135016469</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.2135016468</v>
-      </c>
-      <c r="L2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="M2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016469</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703833</v>
+        <v>106137.1517703837</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252114</v>
+        <v>316711.9424252111</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>5.456968210637569e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>72254.69487113901</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313409</v>
+        <v>24677.24609313418</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817159</v>
+        <v>76496.1579381714</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>300141.6569151476</v>
       </c>
       <c r="C4" t="n">
-        <v>269877.2512870325</v>
+        <v>269877.2512870324</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.5455523023</v>
+      </c>
+      <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="F4" t="n">
-        <v>29303.54555230238</v>
-      </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
@@ -26447,19 +26447,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
+        <v>29303.54555230225</v>
+      </c>
+      <c r="M4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230229</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.4220148571</v>
+        <v>58810.42201485713</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26481,13 +26481,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>302373.3034923283</v>
+        <v>302373.3034923284</v>
       </c>
       <c r="C6" t="n">
-        <v>345164.8562987963</v>
+        <v>345164.8562987961</v>
       </c>
       <c r="D6" t="n">
-        <v>205927.883560622</v>
+        <v>205927.8835606224</v>
       </c>
       <c r="E6" t="n">
-        <v>96504.30552373177</v>
+        <v>95529.71426401017</v>
       </c>
       <c r="F6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409067</v>
       </c>
       <c r="G6" t="n">
-        <v>621664.342000628</v>
+        <v>620689.7507409067</v>
       </c>
       <c r="H6" t="n">
-        <v>621664.3420006282</v>
+        <v>620689.7507409069</v>
       </c>
       <c r="I6" t="n">
-        <v>621664.3420006284</v>
+        <v>620689.7507409069</v>
       </c>
       <c r="J6" t="n">
-        <v>549409.6471294889</v>
+        <v>548435.0558697674</v>
       </c>
       <c r="K6" t="n">
-        <v>596987.0959074937</v>
+        <v>596012.5046477723</v>
       </c>
       <c r="L6" t="n">
-        <v>545168.1840624567</v>
+        <v>544193.592802735</v>
       </c>
       <c r="M6" t="n">
-        <v>486863.3267667911</v>
+        <v>485888.7355070694</v>
       </c>
       <c r="N6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409067</v>
       </c>
       <c r="O6" t="n">
-        <v>621664.3420006279</v>
+        <v>620689.7507409068</v>
       </c>
       <c r="P6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409067</v>
       </c>
     </row>
   </sheetData>
@@ -26697,16 +26697,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593886</v>
+        <v>117.5602045593889</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26752,7 +26752,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464217</v>
+        <v>372.039630846422</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026327</v>
+        <v>82.53894384026363</v>
       </c>
       <c r="D3" t="n">
-        <v>260.183459657698</v>
+        <v>260.1834596576977</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370137</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406622</v>
+        <v>95.88311714406656</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081339</v>
+        <v>302.2476419081336</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990177</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023551</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406622</v>
+        <v>95.88311714406679</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081341</v>
+        <v>302.2476419081336</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406622</v>
+        <v>95.88311714406656</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081339</v>
+        <v>302.2476419081336</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>315.9778519497843</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>393.9750539528654</v>
+        <v>139.0054348249641</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.299616499605321</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>190.637337537065</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27554,16 +27554,16 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>9.569146015438932</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27590,7 +27590,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>214.2102436350351</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>10.6942108170586</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>46.86790091859706</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657417</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
         <v>192.255830128091</v>
@@ -27672,19 +27672,19 @@
         <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.1280282578751</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>14.19830780963161</v>
       </c>
     </row>
     <row r="6">
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281882</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.4580015512968</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>137.3569550200083</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>8.74030580451381</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>24.19028608121019</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.342354801553</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358483</v>
+        <v>78.37121764358479</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322671</v>
+        <v>68.41045236322665</v>
       </c>
       <c r="R7" t="n">
         <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
         <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
-        <v>224.0435587582286</v>
+        <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>81.95554718101511</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>253.0302416089934</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.101055032063755</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466301</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470703</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870382</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052019</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779992</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394054</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587927</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390064</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246775</v>
+        <v>0.4726038374246787</v>
       </c>
       <c r="H5" t="n">
-        <v>4.84005405002548</v>
+        <v>4.840054050025492</v>
       </c>
       <c r="I5" t="n">
-        <v>18.2200594423149</v>
+        <v>18.22005944231494</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662276</v>
+        <v>40.11165994662286</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480937</v>
+        <v>60.11698038480952</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439487</v>
+        <v>74.58043007439505</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819597</v>
+        <v>82.98509856819618</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127884</v>
+        <v>84.32788422127905</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288719</v>
+        <v>79.6284298128874</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646547</v>
+        <v>67.96102257646564</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869418</v>
+        <v>51.03589764869431</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262793</v>
+        <v>29.687200802628</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531485</v>
+        <v>10.76945994531488</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326527</v>
+        <v>2.068823298326532</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397419</v>
+        <v>0.03780830699397429</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560435</v>
+        <v>0.2528653456560441</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941262</v>
+        <v>2.442146890941268</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596235</v>
+        <v>8.706109488596256</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182821</v>
+        <v>23.89022987182828</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078313</v>
+        <v>40.83220803078323</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483523</v>
+        <v>54.90394270483537</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486679</v>
+        <v>64.07031148486695</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827093</v>
+        <v>65.76606198270947</v>
       </c>
       <c r="O6" t="n">
-        <v>60.1630982710675</v>
+        <v>60.16309827106765</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496851</v>
+        <v>48.28619043496864</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128724</v>
+        <v>32.27803956128731</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134628</v>
+        <v>15.69983260134632</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707647</v>
+        <v>4.696862889707658</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359227</v>
+        <v>1.01922479235923</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368707</v>
+        <v>0.01663587800368712</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005368</v>
+        <v>0.2119938115005374</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886592</v>
+        <v>1.884817705886597</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761601</v>
+        <v>6.375232076761617</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308795</v>
+        <v>14.98796247308799</v>
       </c>
       <c r="K7" t="n">
-        <v>24.629826463426</v>
+        <v>24.62982646342606</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072527</v>
+        <v>31.51769812072535</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094324</v>
+        <v>33.23099356094333</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898672</v>
+        <v>32.4408348089868</v>
       </c>
       <c r="O7" t="n">
-        <v>29.9643616473668</v>
+        <v>29.96436164736688</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275583</v>
+        <v>25.63968789275589</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846768</v>
+        <v>17.75159088846773</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651408</v>
+        <v>9.532012651651433</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6944739695139</v>
+        <v>3.694473969513909</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477481</v>
+        <v>0.9057917400477504</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0115632988091202</v>
+        <v>0.01156329880912023</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522136</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>100.6082676511396</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>197.124277301032</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201024</v>
+        <v>28.16237059201035</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109936</v>
+        <v>164.1725419109937</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548581</v>
+        <v>256.4752296548583</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337557</v>
+        <v>302.1523988337559</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366721</v>
+        <v>292.2617450366723</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539458</v>
+        <v>230.330399653946</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926786</v>
+        <v>158.5267349926787</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414938</v>
+        <v>41.0451984341495</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284202</v>
+        <v>287.1899082284203</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464217</v>
+        <v>372.039630846422</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6933552702936</v>
+        <v>372.039630846422</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033526</v>
+        <v>311.4291731033528</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605754</v>
+        <v>130.4282760844478</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543151</v>
+        <v>2.360334637543211</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104141</v>
+        <v>59.1077233810415</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278382</v>
+        <v>72.81487052278391</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821531</v>
+        <v>76.5730071882154</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140647</v>
+        <v>54.54948956140655</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764931</v>
+        <v>22.91824715764938</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>544.6350560131515</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35512,7 +35512,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R14" t="n">
         <v>59.8253897034981</v>
@@ -35731,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341712</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35746,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415086</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>406.4618263286133</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36214,16 +36214,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>356.0122956238143</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36688,16 +36688,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>326.0235748557327</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37159,19 +37159,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>618.2977090519457</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37396,19 +37396,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>373.6013019241291</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37636,16 +37636,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,7 +37867,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>560.0354988619143</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
